--- a/Week6/dictionary/ef2021a_dist.xlsx
+++ b/Week6/dictionary/ef2021a_dist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0401EF-E506-1F48-A74B-B55E7F9911A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-60" windowWidth="13280" windowHeight="12800"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="19980" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -417,9 +418,6 @@
     <t>(Provisional release)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">Provisional release data have undergone all NCES data quality control procedures. Data are imputed for nonresponding institutions. These data are used for First Look (Provisional Data) Web Tables. Final release data include revisions to the provisional release data that have been made by institutions during the subsequent data collection year. The final release data can be used when the most up to date data are required; however, these data may not match First Look Web Tables based on provisional data. </t>
   </si>
   <si>
@@ -427,16 +425,19 @@
   </si>
   <si>
     <t>EF2021A_DIST</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -508,12 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -533,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -545,16 +541,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,9 +563,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,9 +603,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -855,54 +848,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -913,23 +906,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="150" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -941,23 +934,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="101.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -969,21 +962,21 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -995,87 +988,87 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="41.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1106,295 +1099,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="12" customWidth="1"/>
-    <col min="2" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14" style="12" customWidth="1"/>
-    <col min="7" max="7" width="108.7265625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="11.1640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="9" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="108.6640625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:7">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
         <v>24816</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
         <v>24821</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
         <v>24826</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
         <v>24831</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
         <v>24836</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
         <v>24841</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
         <v>24846</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
         <v>24851</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
         <v>24856</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>6</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
         <v>24861</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1406,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1414,143 +1409,143 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13" customWidth="1"/>
-    <col min="3" max="3" width="160.1796875" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="1" width="10.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10" customWidth="1"/>
+    <col min="3" max="3" width="160.1640625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:3" ht="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+    <row r="3" spans="1:3" ht="117">
+      <c r="A3" s="10">
         <v>24816</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+    <row r="4" spans="1:3" ht="52">
+      <c r="A4" s="10">
         <v>24821</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:3" ht="156">
+      <c r="A5" s="10">
         <v>24826</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:3" ht="156">
+      <c r="A6" s="10">
         <v>24831</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+    <row r="7" spans="1:3" ht="156">
+      <c r="A7" s="10">
         <v>24836</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+    <row r="8" spans="1:3" ht="156">
+      <c r="A8" s="10">
         <v>24841</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+    <row r="9" spans="1:3" ht="156">
+      <c r="A9" s="10">
         <v>24846</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:3" ht="156">
+      <c r="A10" s="10">
         <v>24851</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
+    <row r="11" spans="1:3" ht="169">
+      <c r="A11" s="10">
         <v>24856</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="138" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+    <row r="12" spans="1:3" ht="156">
+      <c r="A12" s="10">
         <v>24861</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1561,139 +1556,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="50.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="10.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:6">
+      <c r="A2" s="9">
         <v>24816</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>6049</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <v>26.93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
         <v>24816</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>5770</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>25.69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
         <v>24816</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>5766</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>25.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
         <v>24816</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>2819</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>12.55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
         <v>24816</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>2059</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>9.17</v>
       </c>
     </row>
@@ -1704,280 +1699,280 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13" style="15" customWidth="1"/>
-    <col min="8" max="8" width="98.81640625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="9.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8" customWidth="1"/>
+    <col min="3" max="4" width="13" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="8" width="98.83203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8">
         <v>24821</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>22463</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>54717112</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>2435.8773093531586</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="12">
         <v>150116</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
         <v>24826</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>15228</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>15970508</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>1048.7593905962701</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>150116</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
         <v>24831</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>14994</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>16455076</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>1097.4440442843804</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>42293</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
         <v>24836</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>22229</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>22291528</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>1002.8129020648702</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>57491</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
         <v>24841</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>12473</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>11018836</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>883.41505652208775</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>31924</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
         <v>24846</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>12473</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>4315471</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>345.98500761645153</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>140692</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
         <v>24851</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>12473</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>143492</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>11.504209091637938</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>6792</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
         <v>24856</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>12473</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>380110</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>30.474625190411288</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>48173</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
         <v>24861</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>12473</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>112599</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>9.0274192255271384</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>14584</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1988,132 +1983,132 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
     </row>
